--- a/Benchmarks/bench - trie.xlsx
+++ b/Benchmarks/bench - trie.xlsx
@@ -155,7 +155,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1100"/>
               <a:t>C -1% modify</a:t>
             </a:r>
           </a:p>
@@ -164,7 +164,17 @@
       <c:layout/>
     </c:title>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25167407793034136"/>
+          <c:y val="0.1961657764807371"/>
+          <c:w val="0.68145651215085723"/>
+          <c:h val="0.59147220233834408"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
@@ -301,11 +311,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="94381952"/>
-        <c:axId val="59908480"/>
+        <c:axId val="93779456"/>
+        <c:axId val="93667328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94381952"/>
+        <c:axId val="93779456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -330,17 +340,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59908480"/>
+        <c:crossAx val="93667328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59908480"/>
+        <c:axId val="93667328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -357,11 +366,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.9990841624913745E-4"/>
+              <c:y val="0.14557274295520956"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94381952"/>
+        <c:crossAx val="93779456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -374,13 +390,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74623329316539844"/>
+          <c:y val="0.114939705963328"/>
+          <c:w val="0.23979046644326693"/>
+          <c:h val="0.22808496521577926"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -400,11 +425,11 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1100"/>
               <a:t>java</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
               <a:t> - 0% modify</a:t>
             </a:r>
           </a:p>
@@ -413,7 +438,17 @@
       <c:layout/>
     </c:title>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20547165900924713"/>
+          <c:y val="0.19480351414406533"/>
+          <c:w val="0.73239752137130298"/>
+          <c:h val="0.59430920093321671"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
@@ -550,11 +585,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="98667136"/>
-        <c:axId val="98665600"/>
+        <c:axId val="93697152"/>
+        <c:axId val="93699072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98667136"/>
+        <c:axId val="93697152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -579,17 +614,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98665600"/>
+        <c:crossAx val="93699072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98665600"/>
+        <c:axId val="93699072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -611,30 +645,59 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.974964667878055E-3"/>
+              <c:y val="0.18565410673938509"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98667136"/>
+        <c:crossAx val="93697152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
           <c:builtInUnit val="hundredThousands"/>
           <c:dispUnitsLbl>
-            <c:layout/>
+            <c:layout>
+              <c:manualLayout>
+                <c:xMode val="edge"/>
+                <c:yMode val="edge"/>
+                <c:x val="5.2908674877178812E-2"/>
+                <c:y val="0.13069748424815747"/>
+              </c:manualLayout>
+            </c:layout>
           </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74645915176128408"/>
+          <c:y val="3.1728953295744433E-2"/>
+          <c:w val="0.2382917760279965"/>
+          <c:h val="0.33782698153655349"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -663,7 +726,17 @@
       <c:layout/>
     </c:title>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15345803996722632"/>
+          <c:y val="0.15744186435294313"/>
+          <c:w val="0.78399338971517452"/>
+          <c:h val="0.71707340722537072"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
@@ -800,11 +873,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="94473600"/>
-        <c:axId val="98244096"/>
+        <c:axId val="99508608"/>
+        <c:axId val="99510528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94473600"/>
+        <c:axId val="99508608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -829,17 +902,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98244096"/>
+        <c:crossAx val="99510528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98244096"/>
+        <c:axId val="99510528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -865,26 +937,42 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94473600"/>
+        <c:crossAx val="99508608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
           <c:builtInUnit val="hundredThousands"/>
           <c:dispUnitsLbl>
-            <c:layout/>
+            <c:layout>
+              <c:manualLayout>
+                <c:xMode val="edge"/>
+                <c:yMode val="edge"/>
+                <c:x val="2.6654897675157153E-2"/>
+                <c:y val="3.8545898323219141E-2"/>
+              </c:manualLayout>
+            </c:layout>
           </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33184740796289353"/>
+          <c:y val="0.28091111222562154"/>
+          <c:w val="0.48218278270771714"/>
+          <c:h val="0.20027951920022735"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -913,7 +1001,17 @@
       <c:layout/>
     </c:title>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.238967867436189"/>
+          <c:y val="0.19018105787624004"/>
+          <c:w val="0.67775322362633827"/>
+          <c:h val="0.60393576226700474"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
@@ -1050,11 +1148,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="100152064"/>
-        <c:axId val="108612992"/>
+        <c:axId val="99540352"/>
+        <c:axId val="99636736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100152064"/>
+        <c:axId val="99540352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,17 +1177,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108612992"/>
+        <c:crossAx val="99636736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108612992"/>
+        <c:axId val="99636736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1111,11 +1208,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.9809407339068981E-2"/>
+              <c:y val="0.19018105787624004"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100152064"/>
+        <c:crossAx val="99540352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1128,13 +1232,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50724252111537826"/>
+          <c:y val="0.19829494194581609"/>
+          <c:w val="0.31821922804608554"/>
+          <c:h val="0.25331020063170068"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1145,15 +1258,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>447676</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>29307</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1180,10 +1293,10 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>483577</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>153865</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1205,15 +1318,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
+      <xdr:colOff>276226</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1237,13 +1350,13 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1553,8 +1666,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="I13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1674,11 +1787,11 @@
         <v>13237712</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F50" si="0">AVERAGE(D5:D7)</f>
+        <f t="shared" ref="F5:F47" si="0">AVERAGE(D5:D7)</f>
         <v>12987825.666666666</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G50" si="1">AVERAGE(E5:E7)</f>
+        <f t="shared" ref="G5:G47" si="1">AVERAGE(E5:E7)</f>
         <v>13023121</v>
       </c>
     </row>
